--- a/Bacillus_simulation_results/2,3-butanediol_production_optimization/simulations_Bsubtilis_BTD.xlsx
+++ b/Bacillus_simulation_results/2,3-butanediol_production_optimization/simulations_Bsubtilis_BTD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\supplementary last\Bacillus_simulation_results\2,3-butanediol_production_optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC569F-4091-4963-847B-FE75CE2AF393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMOMA" sheetId="1" r:id="rId1"/>
@@ -55,9 +61,6 @@
   </si>
   <si>
     <t>growth rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (mmol/gDCW/h)</t>
   </si>
   <si>
     <t>production of 2,3-butanediol</t>
@@ -90,11 +93,14 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> (mmol gDCW^-1 h^-1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,18 +487,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -521,10 +527,10 @@
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8"/>
     </row>
